--- a/docs/source/_files/example/SELF_KEY_MFMC_T0.xlsx
+++ b/docs/source/_files/example/SELF_KEY_MFMC_T0.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GRF000000001</t>
+          <t>IGRF000000001</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -2352,7 +2352,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GRF000000001</t>
+          <t>IGRF000000001</t>
         </is>
       </c>
       <c r="B5" s="16" t="n">
@@ -2383,7 +2383,7 @@
     <row r="6">
       <c r="A6" s="12" t="inlineStr">
         <is>
-          <t>GRF000000001</t>
+          <t>IGRF000000001</t>
         </is>
       </c>
       <c r="B6" s="16" t="n">

--- a/docs/source/_files/example/SELF_KEY_MFMC_T0.xlsx
+++ b/docs/source/_files/example/SELF_KEY_MFMC_T0.xlsx
@@ -681,14 +681,14 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>self_key</t>
+          <t>SELF_KEY</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
+          <t>RA</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>aloumiotis@foo.gr</t>
+          <t>aloumiotis</t>
         </is>
       </c>
     </row>
